--- a/OnBoard/output/trust/bio/Bio_Trust_60.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_60.xlsx
@@ -19663,7 +19663,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F410">
@@ -19673,28 +19673,18 @@
         <v>1</v>
       </c>
       <c r="H410">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="I410">
-        <v>148</v>
+        <v>-1</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L410">
         <v>0</v>
-      </c>
-      <c r="N410" t="inlineStr">
-        <is>
-          <t>SS7668</t>
-        </is>
       </c>
     </row>
     <row r="411">
@@ -19730,19 +19720,19 @@
         <v>1</v>
       </c>
       <c r="H411">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="I411">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L411">
@@ -19750,7 +19740,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>SS7669</t>
+          <t>SS7668</t>
         </is>
       </c>
     </row>
@@ -19787,10 +19777,10 @@
         <v>1</v>
       </c>
       <c r="H412">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I412">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
@@ -19807,7 +19797,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>SS7670</t>
+          <t>SS7669</t>
         </is>
       </c>
     </row>
@@ -19844,19 +19834,19 @@
         <v>1</v>
       </c>
       <c r="H413">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="I413">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L413">
@@ -19864,7 +19854,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>SS7671</t>
+          <t>SS7670</t>
         </is>
       </c>
     </row>
@@ -19901,10 +19891,10 @@
         <v>1</v>
       </c>
       <c r="H414">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I414">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
@@ -19921,7 +19911,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>SS7672</t>
+          <t>SS7671</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19933,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -19958,10 +19948,10 @@
         <v>1</v>
       </c>
       <c r="H415">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="I415">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
@@ -19978,7 +19968,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>SS7673</t>
+          <t>SS7672</t>
         </is>
       </c>
     </row>
@@ -20015,10 +20005,10 @@
         <v>1</v>
       </c>
       <c r="H416">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="I416">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
@@ -20035,7 +20025,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>SS7674</t>
+          <t>SS7673</t>
         </is>
       </c>
     </row>
@@ -20062,7 +20052,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F417">
@@ -20072,13 +20062,28 @@
         <v>1</v>
       </c>
       <c r="H417">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="I417">
-        <v>-1</v>
+        <v>173</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
       </c>
       <c r="L417">
         <v>0</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>SS7674</t>
+        </is>
       </c>
     </row>
   </sheetData>
